--- a/PatternInterReport.xlsx
+++ b/PatternInterReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA5E14A-2A86-3D43-ABAA-2C758A73C715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824B2494-BE8B-3A43-9591-F4BB27DABA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15980" xr2:uid="{082E3804-15BA-084E-9FB2-E5566443FF13}"/>
   </bookViews>
@@ -537,10 +537,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,40 +576,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
             <c:numRef>
               <c:f>Лист1!$E$34:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -926,7 +926,7 @@
             <c:numRef>
               <c:f>Лист1!$F$34:$F$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1061,7 +1061,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1309,7 +1309,7 @@
             <c:numRef>
               <c:f>Лист1!$E$39:$E$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1388,7 +1388,7 @@
             <c:numRef>
               <c:f>Лист1!$F$39:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1499,7 +1499,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1752,7 +1752,7 @@
             <c:numRef>
               <c:f>Лист1!$E$30:$E$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1813,7 +1813,7 @@
             <c:numRef>
               <c:f>Лист1!$F$30:$F$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1915,7 +1915,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9556,7 +9556,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E39" sqref="E39:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9566,13 +9566,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -9624,22 +9624,22 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44">
-        <v>0</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -9681,18 +9681,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
@@ -9779,13 +9779,13 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="27"/>
       <c r="G12" s="26"/>
       <c r="H12" s="24"/>
@@ -9809,13 +9809,13 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="23"/>
       <c r="G14" s="16"/>
       <c r="H14" s="25"/>
@@ -9931,13 +9931,13 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -10049,16 +10049,16 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="35" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -10091,10 +10091,10 @@
       <c r="D30" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="30">
+      <c r="E30" s="45">
+        <v>0</v>
+      </c>
+      <c r="F30" s="45">
         <v>0</v>
       </c>
     </row>
@@ -10111,10 +10111,10 @@
       <c r="D31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="30">
-        <v>0</v>
-      </c>
-      <c r="F31" s="30">
+      <c r="E31" s="45">
+        <v>0</v>
+      </c>
+      <c r="F31" s="45">
         <v>0</v>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
       <c r="C32" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -10165,10 +10165,10 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34" s="30">
+      <c r="E34" s="45">
+        <v>0</v>
+      </c>
+      <c r="F34" s="45">
         <v>0</v>
       </c>
     </row>
@@ -10185,10 +10185,10 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="30">
-        <v>0</v>
-      </c>
-      <c r="F35" s="30">
+      <c r="E35" s="45">
+        <v>0</v>
+      </c>
+      <c r="F35" s="45">
         <v>0</v>
       </c>
     </row>
@@ -10207,31 +10207,31 @@
       <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="31">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31">
+      <c r="E36" s="46">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="32" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>0</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="43">
+        <v>0</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -10241,112 +10241,107 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="30">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
+      <c r="E39" s="45">
+        <v>0</v>
+      </c>
+      <c r="F39" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30">
+      <c r="E40" s="45">
+        <v>0</v>
+      </c>
+      <c r="F40" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="30">
-        <v>0</v>
-      </c>
-      <c r="F41" s="30">
+      <c r="E41" s="45">
+        <v>0</v>
+      </c>
+      <c r="F41" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="30">
+      <c r="E42" s="45">
+        <v>0</v>
+      </c>
+      <c r="F42" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="30">
+      <c r="E43" s="45">
+        <v>0</v>
+      </c>
+      <c r="F43" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A28:C28"/>
@@ -10355,6 +10350,11 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/PatternInterReport.xlsx
+++ b/PatternInterReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824B2494-BE8B-3A43-9591-F4BB27DABA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6DB870-1509-5F40-8539-E4345948939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15980" xr2:uid="{082E3804-15BA-084E-9FB2-E5566443FF13}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,9 +463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -489,16 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,12 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,17 +558,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3334,8 +3337,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="m/d/yy">
-                  <c:v>-12</c:v>
+                <c:pt idx="0">
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32</c:v>
@@ -9150,13 +9153,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>17062</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>644478</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>473880</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9556,7 +9559,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F43"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9565,187 +9568,187 @@
     <col min="2" max="10" width="40.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="29">
+      <c r="B3" s="41">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42">
+        <v>0</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="21">
         <f>_xlfn.DAYS(B6,B5)-B7</f>
-        <v>-12</v>
-      </c>
-      <c r="G3" s="25">
+        <v>719</v>
+      </c>
+      <c r="G3" s="21">
         <f>B7</f>
         <v>32</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="37">
+        <v>732</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="17">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="44">
         <f>A30</f>
         <v>0</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="44">
         <f>A31</f>
         <v>0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="44">
         <f>A32</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="44">
         <f>A33</f>
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="44">
         <f>A34</f>
         <v>0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="44">
         <f>A35</f>
         <v>0</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
         <v>0</v>
       </c>
       <c r="H10" s="5"/>
@@ -9753,25 +9756,25 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="B11" s="45">
+        <v>0</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>0</v>
       </c>
       <c r="H11" s="5"/>
@@ -9779,286 +9782,286 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="A16" s="17">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
         <v>0</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="A17" s="17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
         <v>0</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="A18" s="17">
+        <v>0</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
         <v>0</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="A19" s="17">
+        <v>0</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
         <v>0</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="A20" s="17">
+        <v>0</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
         <v>0</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="A22" s="17">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
         <v>0</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="A23" s="17">
+        <v>0</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
         <v>0</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="A24" s="17">
+        <v>0</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
         <v>0</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="A25" s="17">
+        <v>0</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
         <v>0</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="A26" s="17">
+        <v>0</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
         <v>0</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="A27" s="17">
+        <v>0</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
         <v>0</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="37" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -10070,7 +10073,7 @@
       <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -10079,69 +10082,69 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17">
+        <v>0</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="45">
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="17">
+        <v>0</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="45">
-        <v>0</v>
-      </c>
-      <c r="F31" s="45">
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="40" t="s">
+      <c r="A32" s="17">
+        <v>0</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>0</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="A33" s="17">
+        <v>0</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
         <v>0</v>
       </c>
       <c r="D33" s="1"/>
@@ -10153,86 +10156,86 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>0</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="17">
+        <v>0</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="A35" s="17">
+        <v>0</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="45">
-        <v>0</v>
-      </c>
-      <c r="F35" s="45">
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="17">
         <f>SUM(B30:B35)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="17">
         <f>SUM(C30:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="46">
-        <v>0</v>
-      </c>
-      <c r="F36" s="46">
+      <c r="E36" s="45">
+        <v>0</v>
+      </c>
+      <c r="F36" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43">
-        <v>0</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="46">
+        <v>0</v>
+      </c>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
@@ -10241,104 +10244,104 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="8" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="45">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45">
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="8" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="45">
-        <v>0</v>
-      </c>
-      <c r="F40" s="45">
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="8" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="45">
-        <v>0</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="45">
-        <v>0</v>
-      </c>
-      <c r="F42" s="45">
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="8" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="45">
-        <v>0</v>
-      </c>
-      <c r="F43" s="45">
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
